--- a/BackTest/2020-01-16 BackTest ADA.xlsx
+++ b/BackTest/2020-01-16 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-197215.52036902</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-195216.58776902</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>42.1</v>
@@ -521,7 +521,7 @@
         <v>-195216.58776902</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>42.22</v>
@@ -562,7 +562,7 @@
         <v>-195216.58776902</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>42.22</v>
@@ -603,7 +603,7 @@
         <v>-195216.58776902</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>42.22</v>
@@ -640,7 +640,7 @@
         <v>-246294.39286902</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>42.22</v>
@@ -681,7 +681,7 @@
         <v>-243976.85596902</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>42</v>
@@ -722,7 +722,7 @@
         <v>-312441.86446902</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>42.22</v>
@@ -763,7 +763,7 @@
         <v>-239477.46596902</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>42</v>
@@ -804,7 +804,7 @@
         <v>-245127.87716902</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>42.11</v>
@@ -845,7 +845,7 @@
         <v>-243447.87716902</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>42.1</v>
@@ -886,7 +886,7 @@
         <v>-241043.60006902</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>42.21</v>
@@ -927,7 +927,7 @@
         <v>-226525.94586902</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>42.22</v>
@@ -968,7 +968,7 @@
         <v>-232548.51276902</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>42.24</v>
@@ -1009,7 +1009,7 @@
         <v>-228664.56206902</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>42.1</v>
@@ -1050,7 +1050,7 @@
         <v>-226455.97866902</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>42.23</v>
@@ -1091,7 +1091,7 @@
         <v>-230200.87876902</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>42.26</v>
@@ -1132,7 +1132,7 @@
         <v>-245090.67036902</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>42.24</v>
@@ -1173,7 +1173,7 @@
         <v>-241421.09816902</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>42.13</v>
@@ -1214,7 +1214,7 @@
         <v>-246255.23056902</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>42.34</v>
@@ -1255,7 +1255,7 @@
         <v>-245853.73056902</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>42.33</v>
@@ -1296,7 +1296,7 @@
         <v>-245853.73056902</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>42.4</v>
@@ -1337,7 +1337,7 @@
         <v>-245853.73056902</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>42.4</v>
@@ -1378,9 +1378,11 @@
         <v>-245654.37076902</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J25" t="n">
         <v>42.22</v>
       </c>
@@ -1417,9 +1419,11 @@
         <v>-245654.37076902</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J26" t="n">
         <v>42.22</v>
       </c>
@@ -10738,7 +10742,7 @@
         <v>2120745.13881054</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
@@ -10746,15 +10750,13 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
-        <v>1.063450971103742</v>
-      </c>
-      <c r="M265" t="n">
-        <v>1.002850356294537</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10779,11 +10781,17 @@
         <v>2048378.13971054</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10812,11 +10820,17 @@
         <v>2062019.27931054</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10845,11 +10859,17 @@
         <v>2116875.26071054</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10878,11 +10898,17 @@
         <v>2116875.26071054</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10911,11 +10937,17 @@
         <v>2116875.26071054</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +10976,17 @@
         <v>2128400.06641054</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +11015,17 @@
         <v>2126693.92051054</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +11054,17 @@
         <v>2125964.47461054</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11043,11 +11093,17 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11076,11 +11132,17 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11109,11 +11171,17 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11142,11 +11210,17 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +11249,17 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11208,11 +11288,17 @@
         <v>2137528.24181054</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +11327,17 @@
         <v>2092355.44291054</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11274,11 +11366,17 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11307,11 +11405,17 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11340,11 +11444,17 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11373,11 +11483,17 @@
         <v>2005162.61991054</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11406,11 +11522,17 @@
         <v>1970347.55461054</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11439,11 +11561,17 @@
         <v>1970312.13281054</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11475,8 +11603,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11505,11 +11639,17 @@
         <v>1987656.94901054</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +11678,17 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11571,11 +11717,17 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11604,11 +11756,17 @@
         <v>1982670.651010541</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11637,11 +11795,17 @@
         <v>2092939.383918781</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11670,11 +11834,17 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11703,11 +11873,17 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11736,11 +11912,17 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11772,8 +11954,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11805,8 +11993,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11838,8 +12032,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11871,8 +12071,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11904,8 +12110,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11937,8 +12149,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11970,8 +12188,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12003,8 +12227,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12036,8 +12266,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12069,8 +12305,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12102,8 +12344,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12135,8 +12383,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12168,8 +12422,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12201,8 +12461,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12234,8 +12500,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12267,8 +12539,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12300,8 +12578,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12333,8 +12617,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12366,8 +12656,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12399,8 +12695,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12432,8 +12734,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12465,8 +12773,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12498,8 +12812,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12531,8 +12851,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12564,8 +12890,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12597,8 +12929,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12630,8 +12968,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12663,8 +13007,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12696,8 +13046,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12729,8 +13085,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12762,8 +13124,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12795,8 +13163,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12828,8 +13202,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12861,8 +13241,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12894,8 +13280,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12927,8 +13319,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12960,8 +13358,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12993,8 +13397,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13026,8 +13436,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13056,11 +13472,17 @@
         <v>2218842.93964948</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13089,11 +13511,17 @@
         <v>2218842.93964948</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13122,11 +13550,17 @@
         <v>2315834.07144948</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13155,11 +13589,17 @@
         <v>2384497.398449481</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13188,11 +13628,17 @@
         <v>2327982.477349481</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13221,11 +13667,17 @@
         <v>2330927.01444948</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13254,11 +13706,17 @@
         <v>2330927.01444948</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13290,8 +13748,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13323,8 +13787,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13356,8 +13826,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13389,8 +13865,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13422,8 +13904,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13452,11 +13940,17 @@
         <v>2304251.819525401</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13485,11 +13979,17 @@
         <v>2179712.672025401</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13518,11 +14018,17 @@
         <v>2192521.9509254</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13551,11 +14057,17 @@
         <v>2011492.5714254</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13587,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13620,8 +14138,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13653,8 +14177,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13686,8 +14216,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13719,8 +14255,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13752,8 +14294,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13785,8 +14333,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13818,8 +14372,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13851,8 +14411,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13884,8 +14450,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13917,8 +14489,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13950,8 +14528,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13983,8 +14567,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14016,8 +14606,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14049,8 +14645,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14082,8 +14684,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14115,8 +14723,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14148,8 +14762,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14181,8 +14801,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14214,8 +14840,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14247,8 +14879,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14280,8 +14918,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14313,8 +14957,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14346,8 +14996,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14379,8 +15035,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14412,8 +15074,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14445,8 +15113,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14478,8 +15152,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14511,8 +15191,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14541,11 +15227,17 @@
         <v>3242624.027492061</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14574,11 +15266,17 @@
         <v>3241910.786692061</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14607,11 +15305,17 @@
         <v>3241910.786692061</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14640,11 +15344,17 @@
         <v>3245032.017292061</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14673,11 +15383,17 @@
         <v>3292023.454591711</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14706,11 +15422,17 @@
         <v>3265168.026291711</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14739,11 +15461,17 @@
         <v>3253567.019091711</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14775,8 +15503,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +15539,17 @@
         <v>3253590.203591711</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14838,11 +15578,17 @@
         <v>3253590.203591711</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14871,15 +15617,23 @@
         <v>3300756.697386211</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
+        <v>1.122190904784462</v>
+      </c>
+      <c r="M390" t="n">
+        <v>1.002850356294537</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -14904,7 +15658,7 @@
         <v>3252030.359486211</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14937,7 +15691,7 @@
         <v>3006288.491986211</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14970,7 +15724,7 @@
         <v>2942891.084886211</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15003,7 +15757,7 @@
         <v>2995187.848486211</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15036,7 +15790,7 @@
         <v>3002665.425086211</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15069,7 +15823,7 @@
         <v>3053367.953786211</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15102,7 +15856,7 @@
         <v>3053921.953786211</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15135,7 +15889,7 @@
         <v>3081406.616886211</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15168,7 +15922,7 @@
         <v>3092864.202699761</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15201,7 +15955,7 @@
         <v>3108206.585899761</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15234,7 +15988,7 @@
         <v>3129195.458999761</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15267,7 +16021,7 @@
         <v>3151869.298599761</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15300,7 +16054,7 @@
         <v>3135662.229199761</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15333,7 +16087,7 @@
         <v>3026264.890299761</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15366,7 +16120,7 @@
         <v>2869139.643199761</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15399,7 +16153,7 @@
         <v>2552005.729299761</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15432,7 +16186,7 @@
         <v>2414708.933899761</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15465,7 +16219,7 @@
         <v>2304525.833099761</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15498,7 +16252,7 @@
         <v>2332878.647999761</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15696,7 +16450,7 @@
         <v>2127521.301607021</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15729,7 +16483,7 @@
         <v>2097889.045007021</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15762,7 +16516,7 @@
         <v>2093593.838807021</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15795,7 +16549,7 @@
         <v>2149415.883307021</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15828,7 +16582,7 @@
         <v>2164752.528107021</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15861,7 +16615,7 @@
         <v>2164752.528107021</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15894,7 +16648,7 @@
         <v>2164752.528107021</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15927,7 +16681,7 @@
         <v>2164874.348282451</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15960,7 +16714,7 @@
         <v>2165275.329478101</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15993,7 +16747,7 @@
         <v>2154628.035878101</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16026,7 +16780,7 @@
         <v>2171743.037278101</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16059,7 +16813,7 @@
         <v>2471940.792178101</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16092,7 +16846,7 @@
         <v>2460247.690378101</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16125,7 +16879,7 @@
         <v>2460218.690378101</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16158,7 +16912,7 @@
         <v>2460218.690378101</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16191,7 +16945,7 @@
         <v>2334711.646378101</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16224,7 +16978,7 @@
         <v>2170525.550878101</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16290,7 +17044,7 @@
         <v>2175575.865878101</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16356,7 +17110,7 @@
         <v>2211285.463578101</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -18006,7 +18760,7 @@
         <v>2684702.9495971</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18072,7 +18826,7 @@
         <v>2684702.9495971</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18105,7 +18859,7 @@
         <v>2684702.9495971</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18171,7 +18925,7 @@
         <v>2679740.8680971</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18237,7 +18991,7 @@
         <v>2695919.4723971</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18336,7 +19090,7 @@
         <v>2739849.2397971</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18369,7 +19123,7 @@
         <v>2741429.0313971</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18402,7 +19156,7 @@
         <v>2744143.8545971</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18435,7 +19189,7 @@
         <v>2744143.8545971</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18468,7 +19222,7 @@
         <v>2744143.8545971</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18666,7 +19420,7 @@
         <v>2448859.8990971</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18699,7 +19453,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18732,7 +19486,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18930,7 +19684,7 @@
         <v>2392478.9696971</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18963,7 +19717,7 @@
         <v>2392478.9696971</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18996,7 +19750,7 @@
         <v>2379931.22287443</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19029,7 +19783,7 @@
         <v>2382542.806363809</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19062,7 +19816,7 @@
         <v>2376804.242863809</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19095,7 +19849,7 @@
         <v>2495271.651069269</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19128,7 +19882,7 @@
         <v>2395806.737769269</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19161,7 +19915,7 @@
         <v>2193470.671569269</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19227,7 +19981,7 @@
         <v>2193470.671569269</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19359,7 +20113,7 @@
         <v>2081458.717569269</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19392,7 +20146,7 @@
         <v>2035296.325369269</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19458,7 +20212,7 @@
         <v>1943249.297569269</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19491,7 +20245,7 @@
         <v>1918889.973769269</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19524,7 +20278,7 @@
         <v>1913952.265869269</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19557,7 +20311,7 @@
         <v>1883440.761969269</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19590,7 +20344,7 @@
         <v>2067927.737969269</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19623,7 +20377,7 @@
         <v>2098038.721369269</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19656,7 +20410,7 @@
         <v>2097392.030269269</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19689,7 +20443,7 @@
         <v>2097392.030269269</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19755,7 +20509,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19788,7 +20542,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19821,7 +20575,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19854,7 +20608,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19920,7 +20674,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19953,7 +20707,7 @@
         <v>2081296.324869269</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19986,7 +20740,7 @@
         <v>2101337.554869269</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20019,7 +20773,7 @@
         <v>2463716.625669269</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20052,7 +20806,7 @@
         <v>2431621.388469269</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20085,7 +20839,7 @@
         <v>2458571.05646927</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20118,7 +20872,7 @@
         <v>2458571.05646927</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20382,7 +21136,7 @@
         <v>2242438.44516927</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20811,7 +21565,7 @@
         <v>2128335.250469269</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -24342,7 +25096,7 @@
         <v>1264432.77585407</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24375,7 +25129,7 @@
         <v>1199396.45075407</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24474,7 +25228,7 @@
         <v>1171876.99625122</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24507,7 +25261,7 @@
         <v>1176715.52185122</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24540,7 +25294,7 @@
         <v>1176503.71435122</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -29391,7 +30145,7 @@
         <v>1922760.87587503</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29424,7 +30178,7 @@
         <v>1922760.87587503</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29457,7 +30211,7 @@
         <v>1919151.05337503</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29490,7 +30244,7 @@
         <v>1843335.14647503</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29523,7 +30277,7 @@
         <v>1844000.23259027</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29556,7 +30310,7 @@
         <v>1836412.64169027</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30051,7 +30805,7 @@
         <v>1849542.12569027</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30084,7 +30838,7 @@
         <v>1849872.25359027</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30117,7 +30871,7 @@
         <v>1850266.05359027</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30150,7 +30904,7 @@
         <v>1850266.05359027</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30183,7 +30937,7 @@
         <v>1890313.98519027</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30216,7 +30970,7 @@
         <v>1890313.98519027</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30249,7 +31003,7 @@
         <v>1890313.98519027</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30282,7 +31036,7 @@
         <v>1874884.55889027</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30315,7 +31069,7 @@
         <v>1883194.20819027</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30348,7 +31102,7 @@
         <v>2342786.81548175</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30381,7 +31135,7 @@
         <v>2269314.32458175</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30414,7 +31168,7 @@
         <v>2269314.32458175</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30447,7 +31201,7 @@
         <v>2249143.28981579</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30480,7 +31234,7 @@
         <v>2253248.27111579</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30513,7 +31267,7 @@
         <v>2253248.27111579</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30546,7 +31300,7 @@
         <v>2258552.04011579</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30579,7 +31333,7 @@
         <v>2258506.48691579</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30612,7 +31366,7 @@
         <v>2258506.48691579</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30645,7 +31399,7 @@
         <v>2235797.61671579</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30678,7 +31432,7 @@
         <v>2246400.33490448</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30711,7 +31465,7 @@
         <v>2262131.32439839</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30744,7 +31498,7 @@
         <v>2262090.10149839</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30777,7 +31531,7 @@
         <v>2248157.63079839</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30810,7 +31564,7 @@
         <v>2277916.20799839</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30843,7 +31597,7 @@
         <v>2280564.20799839</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30909,7 +31663,7 @@
         <v>2278030.16639839</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30942,7 +31696,7 @@
         <v>2283049.32649839</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30975,7 +31729,7 @@
         <v>2283049.32649839</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31008,7 +31762,7 @@
         <v>2278175.09359839</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31041,7 +31795,7 @@
         <v>2278175.09359839</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31074,7 +31828,7 @@
         <v>2279403.09359839</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31107,7 +31861,7 @@
         <v>2279403.09359839</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31272,7 +32026,7 @@
         <v>2273966.14131377</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31305,7 +32059,7 @@
         <v>2273977.14131377</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31338,7 +32092,7 @@
         <v>2273977.14131377</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31371,7 +32125,7 @@
         <v>2274175.14131377</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31437,7 +32191,7 @@
         <v>2275595.53861377</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31470,7 +32224,7 @@
         <v>2271900.88881377</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31503,7 +32257,7 @@
         <v>2271900.88881377</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31602,7 +32356,7 @@
         <v>2271983.88881377</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31668,7 +32422,7 @@
         <v>2271983.88881377</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31701,7 +32455,7 @@
         <v>2276145.44571377</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31734,7 +32488,7 @@
         <v>2278186.11191377</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31767,7 +32521,7 @@
         <v>2292103.54061377</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31800,7 +32554,7 @@
         <v>2285206.13598851</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31833,7 +32587,7 @@
         <v>2364915.77748851</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31866,7 +32620,7 @@
         <v>2362025.66688851</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31899,7 +32653,7 @@
         <v>2350149.557688511</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31932,7 +32686,7 @@
         <v>2350149.557688511</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31965,7 +32719,7 @@
         <v>2350149.557688511</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31998,7 +32752,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32031,7 +32785,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32064,7 +32818,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32097,7 +32851,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32130,7 +32884,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32163,7 +32917,7 @@
         <v>2411530.49788851</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32196,7 +32950,7 @@
         <v>2411530.49788851</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32229,7 +32983,7 @@
         <v>2411530.49788851</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32262,7 +33016,7 @@
         <v>2387795.27708851</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32295,7 +33049,7 @@
         <v>2351372.49898851</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32328,7 +33082,7 @@
         <v>2351372.49898851</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32361,7 +33115,7 @@
         <v>2351372.49898851</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32394,7 +33148,7 @@
         <v>2351372.49898851</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32427,7 +33181,7 @@
         <v>2351472.39422049</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32460,7 +33214,7 @@
         <v>2351472.39422049</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32493,7 +33247,7 @@
         <v>2351472.39422049</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32526,7 +33280,7 @@
         <v>2354831.23612049</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32559,7 +33313,7 @@
         <v>2494224.28882049</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32592,7 +33346,7 @@
         <v>2494224.28882049</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32625,7 +33379,7 @@
         <v>2496307.62212049</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32658,7 +33412,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32691,7 +33445,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32724,7 +33478,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32757,7 +33511,7 @@
         <v>2492770.90102049</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32790,7 +33544,7 @@
         <v>2494898.56059495</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32823,7 +33577,7 @@
         <v>2475147.33859495</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32856,7 +33610,7 @@
         <v>2464863.01289495</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32889,7 +33643,7 @@
         <v>2473195.90499495</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32922,7 +33676,7 @@
         <v>2489282.51529495</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32955,7 +33709,7 @@
         <v>2474670.91379495</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32988,7 +33742,7 @@
         <v>2481159.96644175</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33021,7 +33775,7 @@
         <v>2480427.98594175</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33054,7 +33808,7 @@
         <v>2494359.02484175</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33087,7 +33841,7 @@
         <v>2492866.471441749</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33120,7 +33874,7 @@
         <v>2458921.74304175</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33153,7 +33907,7 @@
         <v>2458921.74304175</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33186,7 +33940,7 @@
         <v>2487715.162841749</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33219,7 +33973,7 @@
         <v>2510365.162841749</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33252,7 +34006,7 @@
         <v>2616344.368433259</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33285,7 +34039,7 @@
         <v>2618470.68634175</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33318,7 +34072,7 @@
         <v>2539931.307541749</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33351,7 +34105,7 @@
         <v>2539931.307541749</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33384,7 +34138,7 @@
         <v>2541377.36064175</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33417,7 +34171,7 @@
         <v>2503767.731341749</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33450,7 +34204,7 @@
         <v>2505789.731341749</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33483,7 +34237,7 @@
         <v>2489208.294941749</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33516,7 +34270,7 @@
         <v>2527188.635941749</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33549,7 +34303,7 @@
         <v>2525700.44044175</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33582,7 +34336,7 @@
         <v>2525303.72354175</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33615,7 +34369,7 @@
         <v>2525517.53704175</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33648,7 +34402,7 @@
         <v>2528717.53704175</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33681,7 +34435,7 @@
         <v>2367741.67754175</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33714,7 +34468,7 @@
         <v>2418797.09469236</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33747,7 +34501,7 @@
         <v>2366493.91299236</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33780,7 +34534,7 @@
         <v>2234186.95709236</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33813,7 +34567,7 @@
         <v>2231967.30449236</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33846,7 +34600,7 @@
         <v>2240657.21049236</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33879,7 +34633,7 @@
         <v>2199396.44009236</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33890,6 +34644,6 @@
       <c r="M966" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ADA.xlsx
+++ b/BackTest/2020-01-16 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1460,9 +1460,11 @@
         <v>-269660.06496902</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J27" t="n">
         <v>42.22</v>
       </c>
@@ -1499,9 +1501,11 @@
         <v>-269586.06496902</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J28" t="n">
         <v>42.22</v>
       </c>
@@ -1538,9 +1542,11 @@
         <v>-269586.06496902</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J29" t="n">
         <v>42.22</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>1282270.58780874</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
@@ -3184,11 +3190,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>1.037160113690194</v>
       </c>
       <c r="M71" t="inlineStr"/>
     </row>
@@ -3215,17 +3221,11 @@
         <v>1282270.58780874</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3257,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3293,17 +3287,11 @@
         <v>1187600.95780874</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3332,17 +3320,11 @@
         <v>1187600.95780874</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3371,17 +3353,11 @@
         <v>1506460.32080874</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3410,17 +3386,11 @@
         <v>1606650.02650874</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3449,17 +3419,11 @@
         <v>1550361.71930874</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3488,17 +3452,11 @@
         <v>1550361.71930874</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3527,17 +3485,11 @@
         <v>1469733.78320874</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3566,17 +3518,11 @@
         <v>1473806.01320874</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3605,17 +3551,11 @@
         <v>1467557.76610874</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3644,17 +3584,11 @@
         <v>1541290.33146856</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3683,17 +3617,11 @@
         <v>1541290.33146856</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3722,17 +3650,11 @@
         <v>1469483.14886856</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3764,14 +3686,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3803,14 +3719,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3842,14 +3752,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3881,14 +3785,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3920,14 +3818,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3956,17 +3848,11 @@
         <v>1722742.89946856</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3995,17 +3881,11 @@
         <v>1799725.46366856</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4034,17 +3914,11 @@
         <v>1732417.18326856</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4073,17 +3947,11 @@
         <v>1723797.99646856</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4112,17 +3980,11 @@
         <v>1970594.15886856</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4151,17 +4013,11 @@
         <v>1970594.15886856</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4190,17 +4046,11 @@
         <v>1993135.68026856</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4229,17 +4079,11 @@
         <v>2008588.78626856</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4268,17 +4112,11 @@
         <v>2050011.30376856</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4307,17 +4145,11 @@
         <v>2020165.10466856</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4346,17 +4178,11 @@
         <v>2162011.517068559</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4385,17 +4211,11 @@
         <v>2074109.602968559</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4424,17 +4244,11 @@
         <v>2194830.626126799</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4463,17 +4277,11 @@
         <v>2165938.174626799</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4502,17 +4310,11 @@
         <v>2318813.811326799</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4541,17 +4343,11 @@
         <v>2244760.138626799</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4580,17 +4376,11 @@
         <v>2244760.138626799</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4619,17 +4409,11 @@
         <v>2253737.814626799</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4658,17 +4442,11 @@
         <v>2371692.0642268</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4697,17 +4475,11 @@
         <v>1946153.62621407</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4736,17 +4508,11 @@
         <v>2104923.94031407</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4775,17 +4541,11 @@
         <v>2027657.19811407</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4814,17 +4574,11 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4853,17 +4607,11 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4892,17 +4640,11 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4931,17 +4673,11 @@
         <v>1761884.68461407</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4970,17 +4706,11 @@
         <v>1820250.15821407</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5009,17 +4739,11 @@
         <v>1640085.25501396</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5051,14 +4775,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5090,14 +4808,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5129,14 +4841,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4874,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5207,14 +4907,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +4940,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5285,14 +4973,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5324,14 +5006,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5363,14 +5039,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5402,14 +5072,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5438,17 +5102,11 @@
         <v>1770360.60851396</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5480,14 +5138,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5519,14 +5171,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5558,14 +5204,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5597,14 +5237,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5636,14 +5270,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5675,14 +5303,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5714,14 +5336,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5753,14 +5369,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5792,14 +5402,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5831,14 +5435,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5870,14 +5468,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5909,14 +5501,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5948,14 +5534,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5987,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6026,14 +5600,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6065,14 +5633,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6104,14 +5666,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6143,14 +5699,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6182,14 +5732,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6221,14 +5765,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6260,14 +5798,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6299,14 +5831,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6338,14 +5864,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6377,14 +5897,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6416,14 +5930,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6455,14 +5963,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6494,14 +5996,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6533,14 +6029,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6572,14 +6062,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6611,14 +6095,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6650,14 +6128,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6689,14 +6161,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6728,14 +6194,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6767,14 +6227,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6806,14 +6260,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6845,14 +6293,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6884,14 +6326,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6923,14 +6359,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6962,14 +6392,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7001,14 +6425,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7040,14 +6458,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7079,14 +6491,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7118,14 +6524,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7157,14 +6557,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7196,14 +6590,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7235,14 +6623,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7274,14 +6656,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7313,14 +6689,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7352,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7391,14 +6755,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7427,17 +6785,11 @@
         <v>1960978.970415239</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7466,17 +6818,11 @@
         <v>1961863.689315239</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7505,17 +6851,11 @@
         <v>1961863.689315239</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7544,17 +6884,11 @@
         <v>1954651.143315239</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7586,14 +6920,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7625,14 +6953,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7661,17 +6983,11 @@
         <v>1956118.377515239</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7703,14 +7019,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7742,14 +7052,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7781,14 +7085,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7820,14 +7118,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7859,14 +7151,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7898,14 +7184,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7937,14 +7217,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7976,14 +7250,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8015,14 +7283,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8054,14 +7316,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8093,14 +7349,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8132,14 +7382,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8171,14 +7415,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8210,14 +7448,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8249,14 +7481,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8288,14 +7514,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8327,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8366,14 +7580,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8405,14 +7613,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8444,14 +7646,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8483,14 +7679,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8522,14 +7712,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8561,14 +7745,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8600,14 +7778,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8639,14 +7811,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8678,14 +7844,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8717,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8756,14 +7910,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8795,14 +7943,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8834,14 +7976,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8873,14 +8009,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8912,14 +8042,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8951,14 +8075,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8990,14 +8108,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9029,14 +8141,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9068,14 +8174,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9107,14 +8207,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9146,14 +8240,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9185,14 +8273,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9224,14 +8306,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9263,14 +8339,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9302,14 +8372,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9341,14 +8405,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9380,14 +8438,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9419,14 +8471,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9458,14 +8504,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9497,14 +8537,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9536,14 +8570,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9575,14 +8603,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9614,14 +8636,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9653,14 +8669,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9692,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9731,14 +8735,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9770,14 +8768,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9809,14 +8801,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9848,14 +8834,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9887,14 +8867,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9926,14 +8900,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9965,14 +8933,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10004,14 +8966,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10043,14 +8999,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10082,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10121,14 +9065,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10160,14 +9098,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10199,14 +9131,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10238,14 +9164,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10277,14 +9197,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10316,14 +9230,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10355,14 +9263,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10394,14 +9296,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10433,14 +9329,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +9362,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10511,14 +9395,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10550,14 +9428,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10589,14 +9461,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10628,14 +9494,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10667,14 +9527,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +9560,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10745,14 +9593,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10784,14 +9626,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10823,14 +9659,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10862,14 +9692,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10901,14 +9725,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10940,14 +9758,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10979,14 +9791,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11018,14 +9824,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11054,17 +9854,11 @@
         <v>2125964.47461054</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11093,17 +9887,11 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11132,17 +9920,11 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11171,17 +9953,11 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11210,17 +9986,11 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11249,17 +10019,11 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11288,17 +10052,11 @@
         <v>2137528.24181054</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11327,17 +10085,11 @@
         <v>2092355.44291054</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11366,17 +10118,11 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11405,17 +10151,11 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11444,17 +10184,11 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11483,17 +10217,11 @@
         <v>2005162.61991054</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11522,17 +10250,11 @@
         <v>1970347.55461054</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11561,17 +10283,11 @@
         <v>1970312.13281054</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11600,17 +10316,11 @@
         <v>1983115.86721054</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11639,17 +10349,11 @@
         <v>1987656.94901054</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11678,17 +10382,11 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11717,17 +10415,11 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11756,17 +10448,11 @@
         <v>1982670.651010541</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11795,17 +10481,11 @@
         <v>2092939.383918781</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11834,17 +10514,11 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11873,17 +10547,11 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11912,17 +10580,11 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11954,14 +10616,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11993,14 +10649,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12032,14 +10682,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12071,14 +10715,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12110,14 +10748,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12149,14 +10781,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12188,14 +10814,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12227,14 +10847,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12266,14 +10880,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12305,14 +10913,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12344,14 +10946,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12383,14 +10979,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12422,14 +11012,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12461,14 +11045,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12500,14 +11078,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12539,14 +11111,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12578,14 +11144,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12617,14 +11177,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12656,14 +11210,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12695,14 +11243,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12734,14 +11276,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12773,14 +11309,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12812,14 +11342,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12851,14 +11375,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12890,14 +11408,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12929,14 +11441,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12968,14 +11474,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13007,14 +11507,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13046,14 +11540,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13085,14 +11573,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13124,14 +11606,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13163,14 +11639,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13202,14 +11672,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13241,14 +11705,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13280,14 +11738,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13319,14 +11771,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13358,14 +11804,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13397,14 +11837,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13436,14 +11870,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13475,14 +11903,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13514,14 +11936,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13553,14 +11969,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13592,14 +12002,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13631,14 +12035,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13670,14 +12068,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13709,14 +12101,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13748,14 +12134,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13787,14 +12167,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13826,14 +12200,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13865,14 +12233,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13904,14 +12266,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13943,14 +12299,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13982,14 +12332,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14021,14 +12365,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14060,14 +12398,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14099,14 +12431,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14138,14 +12464,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14177,14 +12497,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14216,14 +12530,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14255,14 +12563,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14294,14 +12596,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14333,14 +12629,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14372,14 +12662,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14411,14 +12695,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14450,14 +12728,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14489,14 +12761,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14528,14 +12794,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14567,14 +12827,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14606,14 +12860,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14645,14 +12893,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14684,14 +12926,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14723,14 +12959,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14762,14 +12992,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14801,14 +13025,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14840,14 +13058,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14879,14 +13091,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14918,14 +13124,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14957,14 +13157,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14996,14 +13190,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15035,14 +13223,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15074,14 +13256,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15113,14 +13289,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15152,14 +13322,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15191,14 +13355,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15230,14 +13388,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15269,14 +13421,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15308,14 +13454,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15347,14 +13487,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15386,14 +13520,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15425,14 +13553,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15464,14 +13586,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15503,14 +13619,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15542,14 +13652,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15581,14 +13685,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15617,23 +13715,15 @@
         <v>3300756.697386211</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>42.22</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
-        <v>1.122190904784462</v>
-      </c>
-      <c r="M390" t="n">
-        <v>1.002850356294537</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -15658,7 +13748,7 @@
         <v>3252030.359486211</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15691,7 +13781,7 @@
         <v>3006288.491986211</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15724,7 +13814,7 @@
         <v>2942891.084886211</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15757,7 +13847,7 @@
         <v>2995187.848486211</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15790,7 +13880,7 @@
         <v>3002665.425086211</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15823,7 +13913,7 @@
         <v>3053367.953786211</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15856,7 +13946,7 @@
         <v>3053921.953786211</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15889,7 +13979,7 @@
         <v>3081406.616886211</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15922,7 +14012,7 @@
         <v>3092864.202699761</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15955,7 +14045,7 @@
         <v>3108206.585899761</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15988,7 +14078,7 @@
         <v>3129195.458999761</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -16021,7 +14111,7 @@
         <v>3151869.298599761</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -16054,7 +14144,7 @@
         <v>3135662.229199761</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16087,7 +14177,7 @@
         <v>3026264.890299761</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16120,7 +14210,7 @@
         <v>2869139.643199761</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16153,7 +14243,7 @@
         <v>2552005.729299761</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16186,7 +14276,7 @@
         <v>2414708.933899761</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16219,7 +14309,7 @@
         <v>2304525.833099761</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16252,7 +14342,7 @@
         <v>2332878.647999761</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16450,7 +14540,7 @@
         <v>2127521.301607021</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16483,7 +14573,7 @@
         <v>2097889.045007021</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16516,7 +14606,7 @@
         <v>2093593.838807021</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16549,7 +14639,7 @@
         <v>2149415.883307021</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16582,7 +14672,7 @@
         <v>2164752.528107021</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16615,7 +14705,7 @@
         <v>2164752.528107021</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16648,7 +14738,7 @@
         <v>2164752.528107021</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16681,7 +14771,7 @@
         <v>2164874.348282451</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16714,7 +14804,7 @@
         <v>2165275.329478101</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16747,7 +14837,7 @@
         <v>2154628.035878101</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16780,7 +14870,7 @@
         <v>2171743.037278101</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16813,7 +14903,7 @@
         <v>2471940.792178101</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16846,7 +14936,7 @@
         <v>2460247.690378101</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16879,7 +14969,7 @@
         <v>2460218.690378101</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -19123,7 +17213,7 @@
         <v>2741429.0313971</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19156,7 +17246,7 @@
         <v>2744143.8545971</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19222,7 +17312,7 @@
         <v>2744143.8545971</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19420,7 +17510,7 @@
         <v>2448859.8990971</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19453,7 +17543,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19684,7 +17774,7 @@
         <v>2392478.9696971</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19717,7 +17807,7 @@
         <v>2392478.9696971</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19750,7 +17840,7 @@
         <v>2379931.22287443</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19783,7 +17873,7 @@
         <v>2382542.806363809</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19816,7 +17906,7 @@
         <v>2376804.242863809</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19849,7 +17939,7 @@
         <v>2495271.651069269</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19882,7 +17972,7 @@
         <v>2395806.737769269</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19915,7 +18005,7 @@
         <v>2193470.671569269</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19981,7 +18071,7 @@
         <v>2193470.671569269</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20113,7 +18203,7 @@
         <v>2081458.717569269</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20146,7 +18236,7 @@
         <v>2035296.325369269</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20212,7 +18302,7 @@
         <v>1943249.297569269</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20245,7 +18335,7 @@
         <v>1918889.973769269</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20278,7 +18368,7 @@
         <v>1913952.265869269</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20311,7 +18401,7 @@
         <v>1883440.761969269</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20344,7 +18434,7 @@
         <v>2067927.737969269</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20377,7 +18467,7 @@
         <v>2098038.721369269</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20410,7 +18500,7 @@
         <v>2097392.030269269</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20443,7 +18533,7 @@
         <v>2097392.030269269</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20509,7 +18599,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20542,7 +18632,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20575,7 +18665,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20608,7 +18698,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20674,7 +18764,7 @@
         <v>2071062.730269269</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20707,7 +18797,7 @@
         <v>2081296.324869269</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20740,7 +18830,7 @@
         <v>2101337.554869269</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20773,7 +18863,7 @@
         <v>2463716.625669269</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20806,7 +18896,7 @@
         <v>2431621.388469269</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20839,7 +18929,7 @@
         <v>2458571.05646927</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20872,7 +18962,7 @@
         <v>2458571.05646927</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21136,7 +19226,7 @@
         <v>2242438.44516927</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -30805,7 +28895,7 @@
         <v>1849542.12569027</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30838,7 +28928,7 @@
         <v>1849872.25359027</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30871,7 +28961,7 @@
         <v>1850266.05359027</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30904,7 +28994,7 @@
         <v>1850266.05359027</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30937,7 +29027,7 @@
         <v>1890313.98519027</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30970,7 +29060,7 @@
         <v>1890313.98519027</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31003,7 +29093,7 @@
         <v>1890313.98519027</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31036,7 +29126,7 @@
         <v>1874884.55889027</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31069,7 +29159,7 @@
         <v>1883194.20819027</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31102,7 +29192,7 @@
         <v>2342786.81548175</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31135,7 +29225,7 @@
         <v>2269314.32458175</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31168,7 +29258,7 @@
         <v>2269314.32458175</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31201,7 +29291,7 @@
         <v>2249143.28981579</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31234,7 +29324,7 @@
         <v>2253248.27111579</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31267,7 +29357,7 @@
         <v>2253248.27111579</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31300,7 +29390,7 @@
         <v>2258552.04011579</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31333,7 +29423,7 @@
         <v>2258506.48691579</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31366,7 +29456,7 @@
         <v>2258506.48691579</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31399,7 +29489,7 @@
         <v>2235797.61671579</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31432,7 +29522,7 @@
         <v>2246400.33490448</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31465,7 +29555,7 @@
         <v>2262131.32439839</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31498,7 +29588,7 @@
         <v>2262090.10149839</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31531,7 +29621,7 @@
         <v>2248157.63079839</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31564,7 +29654,7 @@
         <v>2277916.20799839</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31597,7 +29687,7 @@
         <v>2280564.20799839</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31663,7 +29753,7 @@
         <v>2278030.16639839</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31696,7 +29786,7 @@
         <v>2283049.32649839</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31729,7 +29819,7 @@
         <v>2283049.32649839</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31762,7 +29852,7 @@
         <v>2278175.09359839</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31795,7 +29885,7 @@
         <v>2278175.09359839</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31828,7 +29918,7 @@
         <v>2279403.09359839</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31861,7 +29951,7 @@
         <v>2279403.09359839</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32026,7 +30116,7 @@
         <v>2273966.14131377</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32059,7 +30149,7 @@
         <v>2273977.14131377</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32092,7 +30182,7 @@
         <v>2273977.14131377</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32125,7 +30215,7 @@
         <v>2274175.14131377</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -32191,7 +30281,7 @@
         <v>2275595.53861377</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32224,7 +30314,7 @@
         <v>2271900.88881377</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32257,7 +30347,7 @@
         <v>2271900.88881377</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32356,7 +30446,7 @@
         <v>2271983.88881377</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32422,7 +30512,7 @@
         <v>2271983.88881377</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32455,7 +30545,7 @@
         <v>2276145.44571377</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32488,7 +30578,7 @@
         <v>2278186.11191377</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32521,7 +30611,7 @@
         <v>2292103.54061377</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32554,7 +30644,7 @@
         <v>2285206.13598851</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32587,7 +30677,7 @@
         <v>2364915.77748851</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32620,7 +30710,7 @@
         <v>2362025.66688851</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32653,7 +30743,7 @@
         <v>2350149.557688511</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32686,7 +30776,7 @@
         <v>2350149.557688511</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32719,7 +30809,7 @@
         <v>2350149.557688511</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32752,7 +30842,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32785,7 +30875,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32818,7 +30908,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32851,7 +30941,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32884,7 +30974,7 @@
         <v>2318502.70858851</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32917,7 +31007,7 @@
         <v>2411530.49788851</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32950,7 +31040,7 @@
         <v>2411530.49788851</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32983,7 +31073,7 @@
         <v>2411530.49788851</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33016,7 +31106,7 @@
         <v>2387795.27708851</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33049,7 +31139,7 @@
         <v>2351372.49898851</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33082,7 +31172,7 @@
         <v>2351372.49898851</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33115,7 +31205,7 @@
         <v>2351372.49898851</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33148,7 +31238,7 @@
         <v>2351372.49898851</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33181,7 +31271,7 @@
         <v>2351472.39422049</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33214,7 +31304,7 @@
         <v>2351472.39422049</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33247,7 +31337,7 @@
         <v>2351472.39422049</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33280,7 +31370,7 @@
         <v>2354831.23612049</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33313,7 +31403,7 @@
         <v>2494224.28882049</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33346,7 +31436,7 @@
         <v>2494224.28882049</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33379,7 +31469,7 @@
         <v>2496307.62212049</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33412,7 +31502,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33445,7 +31535,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33478,7 +31568,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33511,7 +31601,7 @@
         <v>2492770.90102049</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33544,7 +31634,7 @@
         <v>2494898.56059495</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33577,7 +31667,7 @@
         <v>2475147.33859495</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33610,7 +31700,7 @@
         <v>2464863.01289495</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33643,7 +31733,7 @@
         <v>2473195.90499495</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33676,7 +31766,7 @@
         <v>2489282.51529495</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33709,7 +31799,7 @@
         <v>2474670.91379495</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33742,7 +31832,7 @@
         <v>2481159.96644175</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33775,7 +31865,7 @@
         <v>2480427.98594175</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33808,7 +31898,7 @@
         <v>2494359.02484175</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33841,7 +31931,7 @@
         <v>2492866.471441749</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33874,7 +31964,7 @@
         <v>2458921.74304175</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33907,7 +31997,7 @@
         <v>2458921.74304175</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33940,7 +32030,7 @@
         <v>2487715.162841749</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33973,7 +32063,7 @@
         <v>2510365.162841749</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34006,7 +32096,7 @@
         <v>2616344.368433259</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34039,7 +32129,7 @@
         <v>2618470.68634175</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34072,7 +32162,7 @@
         <v>2539931.307541749</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34105,7 +32195,7 @@
         <v>2539931.307541749</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34138,7 +32228,7 @@
         <v>2541377.36064175</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34171,7 +32261,7 @@
         <v>2503767.731341749</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34204,7 +32294,7 @@
         <v>2505789.731341749</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34237,7 +32327,7 @@
         <v>2489208.294941749</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34270,7 +32360,7 @@
         <v>2527188.635941749</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34303,7 +32393,7 @@
         <v>2525700.44044175</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34336,7 +32426,7 @@
         <v>2525303.72354175</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34369,7 +32459,7 @@
         <v>2525517.53704175</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34402,7 +32492,7 @@
         <v>2528717.53704175</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34435,7 +32525,7 @@
         <v>2367741.67754175</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34468,7 +32558,7 @@
         <v>2418797.09469236</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34501,7 +32591,7 @@
         <v>2366493.91299236</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34534,7 +32624,7 @@
         <v>2234186.95709236</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34567,7 +32657,7 @@
         <v>2231967.30449236</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34600,7 +32690,7 @@
         <v>2240657.21049236</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34633,7 +32723,7 @@
         <v>2199396.44009236</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34644,6 +32734,6 @@
       <c r="M966" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ADA.xlsx
+++ b/BackTest/2020-01-16 BackTest ADA.xlsx
@@ -1501,11 +1501,9 @@
         <v>-269586.06496902</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>42.22</v>
       </c>
@@ -1542,11 +1540,9 @@
         <v>-269586.06496902</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>42.22</v>
       </c>
@@ -3182,7 +3178,7 @@
         <v>1282270.58780874</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
@@ -3190,11 +3186,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.037160113690194</v>
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
     </row>
@@ -3221,11 +3217,17 @@
         <v>1282270.58780874</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3287,11 +3295,17 @@
         <v>1187600.95780874</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +3334,17 @@
         <v>1187600.95780874</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3373,17 @@
         <v>1506460.32080874</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3412,17 @@
         <v>1606650.02650874</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3419,11 +3451,17 @@
         <v>1550361.71930874</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3452,11 +3490,17 @@
         <v>1550361.71930874</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3529,17 @@
         <v>1469733.78320874</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3518,11 +3568,17 @@
         <v>1473806.01320874</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3551,11 +3607,17 @@
         <v>1467557.76610874</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3584,11 +3646,17 @@
         <v>1541290.33146856</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3685,17 @@
         <v>1541290.33146856</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3650,11 +3724,17 @@
         <v>1469483.14886856</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3686,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3719,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3752,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3785,8 +3883,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3818,8 +3922,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3848,11 +3958,17 @@
         <v>1722742.89946856</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3881,11 +3997,17 @@
         <v>1799725.46366856</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +4036,17 @@
         <v>1732417.18326856</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3947,11 +4075,17 @@
         <v>1723797.99646856</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3980,11 +4114,17 @@
         <v>1970594.15886856</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4013,11 +4153,17 @@
         <v>1970594.15886856</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4046,11 +4192,17 @@
         <v>1993135.68026856</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +4231,17 @@
         <v>2008588.78626856</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4112,11 +4270,17 @@
         <v>2050011.30376856</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +4309,17 @@
         <v>2020165.10466856</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4178,11 +4348,17 @@
         <v>2162011.517068559</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4211,11 +4387,17 @@
         <v>2074109.602968559</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4244,11 +4426,17 @@
         <v>2194830.626126799</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4277,11 +4465,17 @@
         <v>2165938.174626799</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4310,11 +4504,17 @@
         <v>2318813.811326799</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4343,11 +4543,17 @@
         <v>2244760.138626799</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4376,11 +4582,17 @@
         <v>2244760.138626799</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4409,11 +4621,17 @@
         <v>2253737.814626799</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4442,11 +4660,17 @@
         <v>2371692.0642268</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4475,11 +4699,17 @@
         <v>1946153.62621407</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4738,17 @@
         <v>2104923.94031407</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4541,11 +4777,17 @@
         <v>2027657.19811407</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4816,17 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4855,17 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4640,11 +4894,17 @@
         <v>1805109.31351407</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4673,11 +4933,17 @@
         <v>1761884.68461407</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4706,11 +4972,17 @@
         <v>1820250.15821407</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +5011,17 @@
         <v>1640085.25501396</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4775,8 +5053,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4808,8 +5092,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4841,8 +5131,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4874,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4907,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4940,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4973,8 +5287,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5006,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5039,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5072,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5102,11 +5440,17 @@
         <v>1770360.60851396</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5138,8 +5482,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5171,8 +5521,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5204,8 +5560,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5237,8 +5599,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5270,8 +5638,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5303,8 +5677,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5336,8 +5716,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5369,8 +5755,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5402,8 +5794,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5435,8 +5833,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5468,8 +5872,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5501,8 +5911,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5534,8 +5950,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +5989,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5600,8 +6028,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5633,8 +6067,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5666,8 +6106,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5699,8 +6145,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5732,8 +6184,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5765,8 +6223,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5798,8 +6262,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5831,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5864,8 +6340,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5897,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5930,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5963,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5996,8 +6496,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6029,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6062,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6095,8 +6613,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6128,8 +6652,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6161,8 +6691,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6194,8 +6730,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6227,8 +6769,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6260,8 +6808,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6293,8 +6847,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6326,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6359,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6392,8 +6964,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6425,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6458,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6491,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6524,8 +7120,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6557,8 +7159,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6590,8 +7198,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6623,8 +7237,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6656,8 +7276,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6689,8 +7315,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +7354,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6755,8 +7393,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +7429,17 @@
         <v>1960978.970415239</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6818,11 +7468,17 @@
         <v>1961863.689315239</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6851,11 +7507,17 @@
         <v>1961863.689315239</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6884,11 +7546,17 @@
         <v>1954651.143315239</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6920,8 +7588,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6953,8 +7627,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6983,11 +7663,17 @@
         <v>1956118.377515239</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7019,8 +7705,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7052,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7085,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7118,8 +7822,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7151,8 +7861,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7184,8 +7900,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7217,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7250,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7283,8 +8017,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7316,8 +8056,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7349,8 +8095,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7382,8 +8134,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7415,8 +8173,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7448,8 +8212,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7481,8 +8251,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7514,8 +8290,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7547,8 +8329,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7580,8 +8368,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7613,8 +8407,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7646,8 +8446,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7679,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7712,8 +8524,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7745,8 +8563,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7778,8 +8602,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7811,8 +8641,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7844,8 +8680,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8719,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7910,8 +8758,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7943,8 +8797,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7976,8 +8836,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8009,8 +8875,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8042,8 +8914,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8075,8 +8953,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8108,8 +8992,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8141,8 +9031,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8174,8 +9070,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8207,8 +9109,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8240,8 +9148,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8273,8 +9187,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8306,8 +9226,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8339,8 +9265,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8372,8 +9304,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8405,8 +9343,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8438,8 +9382,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8471,8 +9421,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8504,8 +9460,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8537,8 +9499,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8570,8 +9538,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8603,8 +9577,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8636,8 +9616,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8669,8 +9655,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8702,8 +9694,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8735,8 +9733,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8768,8 +9772,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8801,8 +9811,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8834,8 +9850,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8867,8 +9889,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8900,8 +9928,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8933,8 +9967,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8966,8 +10006,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8999,8 +10045,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9032,8 +10084,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9065,8 +10123,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9098,8 +10162,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9131,8 +10201,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9164,8 +10240,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9197,8 +10279,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9230,8 +10318,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9263,8 +10357,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9296,8 +10396,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9329,8 +10435,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9362,8 +10474,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9395,8 +10513,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9428,8 +10552,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9461,8 +10591,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9494,8 +10630,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9527,8 +10669,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9560,8 +10708,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9593,8 +10747,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9626,8 +10786,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9659,8 +10825,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9692,8 +10864,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9725,8 +10903,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9758,8 +10942,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9791,8 +10981,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9824,8 +11020,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9854,11 +11056,17 @@
         <v>2125964.47461054</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9887,11 +11095,17 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +11134,17 @@
         <v>2148051.43641054</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9953,11 +11173,17 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9986,11 +11212,17 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10019,11 +11251,17 @@
         <v>2150405.80581054</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10052,11 +11290,17 @@
         <v>2137528.24181054</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10085,11 +11329,17 @@
         <v>2092355.44291054</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10118,11 +11368,17 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10151,11 +11407,17 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10184,11 +11446,17 @@
         <v>2039977.68521054</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10217,11 +11485,17 @@
         <v>2005162.61991054</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +11524,17 @@
         <v>1970347.55461054</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10283,11 +11563,17 @@
         <v>1970312.13281054</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10316,11 +11602,17 @@
         <v>1983115.86721054</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10349,11 +11641,17 @@
         <v>1987656.94901054</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10382,11 +11680,17 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10415,11 +11719,17 @@
         <v>1987645.92121054</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10448,11 +11758,17 @@
         <v>1982670.651010541</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10481,11 +11797,17 @@
         <v>2092939.383918781</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10514,11 +11836,17 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10547,11 +11875,17 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10580,11 +11914,17 @@
         <v>2092526.431618781</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10616,8 +11956,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10649,8 +11995,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10682,8 +12034,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10715,8 +12073,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10748,8 +12112,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10781,8 +12151,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10814,8 +12190,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10847,8 +12229,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10880,8 +12268,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10913,8 +12307,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10946,8 +12346,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10979,8 +12385,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11012,8 +12424,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11045,8 +12463,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11078,8 +12502,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11111,8 +12541,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11144,8 +12580,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11177,8 +12619,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11210,8 +12658,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11243,8 +12697,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11276,8 +12736,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11309,8 +12775,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11342,8 +12814,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11375,8 +12853,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11408,8 +12892,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11441,8 +12931,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11474,8 +12970,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11507,8 +13009,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11540,8 +13048,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11573,8 +13087,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11606,8 +13126,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11639,8 +13165,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11672,8 +13204,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11705,8 +13243,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11738,8 +13282,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11771,8 +13321,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11804,8 +13360,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11837,8 +13399,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11870,8 +13438,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11903,8 +13477,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11936,8 +13516,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11969,8 +13555,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12002,8 +13594,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12035,8 +13633,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12068,8 +13672,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12101,8 +13711,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12134,8 +13750,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12167,8 +13789,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12200,8 +13828,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12233,8 +13867,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12266,8 +13906,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12299,8 +13945,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12332,8 +13984,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12365,8 +14023,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12398,8 +14062,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12431,8 +14101,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12464,8 +14140,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12497,8 +14179,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12530,8 +14218,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12563,8 +14257,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12596,8 +14296,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12629,8 +14335,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12662,8 +14374,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12695,8 +14413,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12728,8 +14452,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12761,8 +14491,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12794,8 +14530,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12827,8 +14569,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12860,8 +14608,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12893,8 +14647,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12926,8 +14686,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12959,8 +14725,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12992,8 +14764,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13025,8 +14803,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13058,8 +14842,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13091,8 +14881,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13124,8 +14920,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13157,8 +14959,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13190,8 +14998,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13223,8 +15037,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13256,8 +15076,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13289,8 +15115,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13322,8 +15154,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13352,15 +15190,23 @@
         <v>3353587.597692061</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
+        <v>1.110585030791094</v>
+      </c>
+      <c r="M379" t="n">
+        <v>1.002850356294537</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -13385,7 +15231,7 @@
         <v>3242624.027492061</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13418,7 +15264,7 @@
         <v>3241910.786692061</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13451,7 +15297,7 @@
         <v>3241910.786692061</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13484,7 +15330,7 @@
         <v>3245032.017292061</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13517,7 +15363,7 @@
         <v>3292023.454591711</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13550,7 +15396,7 @@
         <v>3265168.026291711</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13583,7 +15429,7 @@
         <v>3253567.019091711</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13616,7 +15462,7 @@
         <v>3254450.203591711</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13649,7 +15495,7 @@
         <v>3253590.203591711</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13682,7 +15528,7 @@
         <v>3253590.203591711</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13715,7 +15561,7 @@
         <v>3300756.697386211</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13748,7 +15594,7 @@
         <v>3252030.359486211</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13781,7 +15627,7 @@
         <v>3006288.491986211</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13814,7 +15660,7 @@
         <v>2942891.084886211</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13847,7 +15693,7 @@
         <v>2995187.848486211</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13880,7 +15726,7 @@
         <v>3002665.425086211</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13913,7 +15759,7 @@
         <v>3053367.953786211</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13946,7 +15792,7 @@
         <v>3053921.953786211</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13979,7 +15825,7 @@
         <v>3081406.616886211</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14012,7 +15858,7 @@
         <v>3092864.202699761</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14045,7 +15891,7 @@
         <v>3108206.585899761</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14078,7 +15924,7 @@
         <v>3129195.458999761</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14111,7 +15957,7 @@
         <v>3151869.298599761</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14144,7 +15990,7 @@
         <v>3135662.229199761</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14177,7 +16023,7 @@
         <v>3026264.890299761</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14210,7 +16056,7 @@
         <v>2869139.643199761</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14243,7 +16089,7 @@
         <v>2552005.729299761</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14276,7 +16122,7 @@
         <v>2414708.933899761</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14309,7 +16155,7 @@
         <v>2304525.833099761</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14342,7 +16188,7 @@
         <v>2332878.647999761</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14375,7 +16221,7 @@
         <v>2105911.436999761</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14408,7 +16254,7 @@
         <v>1998980.753399761</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -17279,7 +19125,7 @@
         <v>2744143.8545971</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17378,7 +19224,7 @@
         <v>2761538.3280971</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17411,7 +19257,7 @@
         <v>2739613.9661971</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17444,7 +19290,7 @@
         <v>2739613.9661971</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17477,7 +19323,7 @@
         <v>2448859.8990971</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17510,7 +19356,7 @@
         <v>2448859.8990971</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17576,7 +19422,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17642,7 +19488,7 @@
         <v>2454975.2669971</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17675,7 +19521,7 @@
         <v>2394699.6910971</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17708,7 +19554,7 @@
         <v>2405967.8338971</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17774,7 +19620,7 @@
         <v>2392478.9696971</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -30710,7 +32556,7 @@
         <v>2362025.66688851</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31436,7 +33282,7 @@
         <v>2494224.28882049</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31535,7 +33381,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31568,7 +33414,7 @@
         <v>2498101.90762049</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31601,7 +33447,7 @@
         <v>2492770.90102049</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31634,7 +33480,7 @@
         <v>2494898.56059495</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31667,7 +33513,7 @@
         <v>2475147.33859495</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31700,7 +33546,7 @@
         <v>2464863.01289495</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31733,7 +33579,7 @@
         <v>2473195.90499495</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31799,7 +33645,7 @@
         <v>2474670.91379495</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31832,7 +33678,7 @@
         <v>2481159.96644175</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31865,7 +33711,7 @@
         <v>2480427.98594175</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31964,7 +33810,7 @@
         <v>2458921.74304175</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32096,7 +33942,7 @@
         <v>2616344.368433259</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32129,7 +33975,7 @@
         <v>2618470.68634175</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32162,7 +34008,7 @@
         <v>2539931.307541749</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32195,7 +34041,7 @@
         <v>2539931.307541749</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32228,7 +34074,7 @@
         <v>2541377.36064175</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32261,7 +34107,7 @@
         <v>2503767.731341749</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32294,7 +34140,7 @@
         <v>2505789.731341749</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32327,7 +34173,7 @@
         <v>2489208.294941749</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32360,7 +34206,7 @@
         <v>2527188.635941749</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32393,7 +34239,7 @@
         <v>2525700.44044175</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -32426,7 +34272,7 @@
         <v>2525303.72354175</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32459,7 +34305,7 @@
         <v>2525517.53704175</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32492,7 +34338,7 @@
         <v>2528717.53704175</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32525,7 +34371,7 @@
         <v>2367741.67754175</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32558,7 +34404,7 @@
         <v>2418797.09469236</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32591,7 +34437,7 @@
         <v>2366493.91299236</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32624,7 +34470,7 @@
         <v>2234186.95709236</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32657,7 +34503,7 @@
         <v>2231967.30449236</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
